--- a/deployment/Omaha_Cal_Info_CP02PMCI_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMCI_00004.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10476" yWindow="7644" windowWidth="21576" windowHeight="11256" tabRatio="377"/>
+    <workbookView xWindow="10470" yWindow="7650" windowWidth="21570" windowHeight="11250" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
   <si>
     <t>Ref Des</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>A00491</t>
+  </si>
+  <si>
+    <t>CP02PMCI-RII01-02-ADCPTG010</t>
+  </si>
+  <si>
+    <t>OL000341</t>
   </si>
 </sst>
 </file>
@@ -970,25 +976,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -1045,7 +1051,9 @@
       <c r="F2" s="7">
         <v>0.75763888888888886</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>42510</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>53</v>
       </c>
@@ -1068,11 +1076,11 @@
         <v>-70.877899999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
@@ -1089,25 +1097,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E2:E4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
@@ -1162,8 +1170,19 @@
         <v>55</v>
       </c>
       <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <f>MATCH(A2,L:L,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <f>MATCH(L2,A:A,0)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1190,8 +1209,19 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K39" si="0">MATCH(A3,L:L,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">MATCH(L3,A:A,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -1218,8 +1248,19 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1230,8 +1271,19 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -1254,11 +1306,33 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1285,8 +1359,19 @@
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -1313,8 +1398,19 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
@@ -1341,8 +1437,19 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1369,8 +1476,12 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1397,8 +1508,12 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1425,8 +1540,12 @@
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1453,8 +1572,12 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1481,8 +1604,12 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -1493,8 +1620,12 @@
       <c r="H16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1521,8 +1652,12 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1549,8 +1684,12 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1561,8 +1700,12 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -1589,8 +1732,12 @@
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -1617,8 +1764,12 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -1629,8 +1780,12 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1659,8 +1814,12 @@
         <v>34</v>
       </c>
       <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1687,8 +1846,12 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1715,8 +1878,12 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1743,8 +1910,12 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1773,8 +1944,12 @@
         <v>34</v>
       </c>
       <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -1803,8 +1978,12 @@
         <v>34</v>
       </c>
       <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
@@ -1831,8 +2010,12 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>38</v>
       </c>
@@ -1859,8 +2042,12 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
@@ -1887,8 +2074,12 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
@@ -1917,8 +2108,12 @@
         <v>34</v>
       </c>
       <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -1929,8 +2124,12 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
@@ -1957,8 +2156,12 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1985,8 +2188,12 @@
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1997,8 +2204,12 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -2021,11 +2232,19 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
@@ -2038,7 +2257,9 @@
       <c r="D39" s="10">
         <v>4</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="21">
         <v>1015</v>
       </c>
@@ -2046,17 +2267,21 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F43" s="19"/>
     </row>
   </sheetData>
